--- a/Tableau_Excel/GlobleData.xlsx
+++ b/Tableau_Excel/GlobleData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Amit\Office\Tableau\Live Classes\Lecture - 01_06_2020\Data Set\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\Datasets\Tableau_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475D72A2-9D81-4D06-A098-3C691A0D5965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A0606B-01D1-461A-9546-13CE3FD47F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -862,9 +862,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -902,9 +902,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -937,26 +937,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -989,26 +972,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1185,7 +1151,7 @@
   <dimension ref="A1:F230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
